--- a/assets/xlsx2py/rpgdemo/xlsxs/d_game.xlsx
+++ b/assets/xlsx2py/rpgdemo/xlsxs/d_game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="465" windowWidth="26550" windowHeight="13620" tabRatio="834" activeTab="5"/>
+    <workbookView xWindow="9675" yWindow="600" windowWidth="18075" windowHeight="10695" tabRatio="834" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="@土地信息" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="373">
   <si>
     <t>黄土地</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -931,14 +931,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>播种,发芽,树苗,分枝,开花,摇树,枯树,草地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>播种,发芽,树苗,分枝,开花,成熟,摇树,枯树,草地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>播种,发芽,树苗,分枝,开花</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -960,10 +952,6 @@
   </si>
   <si>
     <t>3,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇树失败！摇树玩家不足两个人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1138,22 +1126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>摇树成功，您一共获得了{0}个{1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获到一只{0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费{0}游戏币扩建了一块{1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获一只{0}，获得了{1}{2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10, 10, 10, 10, 10, 10, 10, 10, 10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1263,10 +1235,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收获了{0},共获得了{1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>probability[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1315,14 +1283,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,10,30,90,150,240,0,180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,10,60,150,200,300,0,0,180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>520分钟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1360,10 +1320,6 @@
   </si>
   <si>
     <t>20,30,40,50,60,70,80,90,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费{0}{1}购买了{2}{3}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1452,6 +1408,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0,1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播种,发芽,树苗,分枝,开花,成熟,摇树,枯树,草地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播种,发芽,树苗,分枝,开花,摇树,枯树,草地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,15,20,25,30,35,40,50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0,10,30,90,150,240,0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0,10,60,150,200,300,0,0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1460,63 +1464,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#228271&gt;{0}&lt;/color&gt;来庄园摘取，摘走了{1}个{2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#228271&gt;{0}&lt;/color&gt;来庄园摘取，被管家抓住，毫无收获</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#228271&gt;{0}&lt;/color&gt;来庄园摘取，被管家抓住，只摘走了{1}个{2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#228271&gt;{0}&lt;/color&gt;赠送了一块{1}给您，剩余{2}次可使用次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>({0})&lt;color=#228271&gt;{1}&lt;/color&gt;邀请您帮忙摇树,倒计时[{2}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>({0})&lt;color=#228271&gt;{1}&lt;/color&gt;邀请您一起偷&lt;color=#228271&gt;{2}&lt;/color&gt;{3}的树</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友&lt;color=#228271&gt;{0}&lt;/color&gt;摇树成功，您获得了{1}个{2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您去&lt;color=#228271&gt;{0}&lt;/color&gt;的庄园，一共偷取了{1}个{2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您去&lt;color=#228271&gt;{0}&lt;/color&gt;的庄园，不幸被对方管家抓住，只偷取了{1}个{2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您去&lt;color=#228271&gt;{0}&lt;/color&gt;的庄园，不幸被对方管家抓住，毫无收获</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#228271&gt;{0}&lt;/color&gt;拒绝帮你摇树！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#228271&gt;{0}&lt;/color&gt;拒绝邀请偷树！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓到了前来偷树的&lt;color=#228271&gt;{0}&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>{0}来庄园偷取，偷走了{1}个{2}</t>
+  </si>
+  <si>
+    <t>{0}来庄园偷取，被管家抓住，毫无收获</t>
+  </si>
+  <si>
+    <t>{0}来庄园偷取，被管家抓住，只偷走了{1}个{2}</t>
+  </si>
+  <si>
+    <t>{0}赠送了一块{1}给您，剩余{2}次可使用次数</t>
+  </si>
+  <si>
+    <t>({0}){1}邀请您帮忙摇树,倒计时[{2}]</t>
+  </si>
+  <si>
+    <t>({0}){1}邀请您一起偷{2}{3}的树</t>
+  </si>
+  <si>
+    <t>好友{0}摇树成功，您获得了{1}个{2}</t>
+  </si>
+  <si>
+    <t>您去{0}的庄园，一共偷取了{1}个{2}</t>
+  </si>
+  <si>
+    <t>您去{0}的庄园，不幸被对方管家抓住，只偷取了{1}个{2}</t>
+  </si>
+  <si>
+    <t>您去{0}的庄园，不幸被对方管家抓住，毫无收获</t>
+  </si>
+  <si>
+    <t>摇树成功，您一共获得了{0}个{1}</t>
+  </si>
+  <si>
+    <t>捕获到一只{0}</t>
+  </si>
+  <si>
+    <t>收获一只{0}，获得了{1}{2}</t>
+  </si>
+  <si>
+    <t>摇树失败！摇树玩家不足两个人</t>
+  </si>
+  <si>
+    <t>{0}拒绝帮你摇树！</t>
+  </si>
+  <si>
+    <t>{0}拒绝邀请偷树！</t>
+  </si>
+  <si>
+    <t>花费{0}游戏币扩建了一块{1}</t>
+  </si>
+  <si>
+    <t>花费{0}{1}购买了{2}{3}</t>
+  </si>
+  <si>
+    <t>收获了{0},共获得了{1}</t>
+  </si>
+  <si>
+    <t>抓到了前来偷树的{0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1602,8 +1614,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1613,6 +1639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,7 +1729,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1806,6 +1838,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2189,13 +2240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -2327,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="1"/>
@@ -2351,19 +2399,22 @@
         <v>39888</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K4" s="24"/>
+      <c r="L4" s="23">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="6">
@@ -2382,13 +2433,13 @@
         <v>148000</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24" t="s">
@@ -2413,16 +2464,16 @@
         <v>312000</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -2523,8 +2574,8 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2547,34 +2598,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="41.45" customHeight="1">
@@ -2582,34 +2633,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>242</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2623,28 +2674,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>356</v>
+        <v>298</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>351</v>
       </c>
       <c r="G3" s="8">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="J3" s="6">
         <v>3000</v>
       </c>
-      <c r="K3">
-        <v>25</v>
+      <c r="K3" s="44">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2661,9 +2712,6 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2683,13 +2731,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>82</v>
@@ -2701,16 +2749,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>254</v>
-      </c>
       <c r="D2" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2724,7 +2772,7 @@
         <v>99</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E3" s="12">
         <v>8000</v>
@@ -2738,10 +2786,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E4" s="12">
         <v>7500</v>
@@ -2755,10 +2803,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E5" s="12">
         <v>7000</v>
@@ -2772,10 +2820,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E6" s="12">
         <v>6500</v>
@@ -2789,10 +2837,10 @@
         <v>120</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E7" s="12">
         <v>6000</v>
@@ -2806,10 +2854,10 @@
         <v>150</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E8" s="12">
         <v>5500</v>
@@ -2823,10 +2871,10 @@
         <v>180</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E9" s="12">
         <v>4500</v>
@@ -2840,10 +2888,10 @@
         <v>210</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E10" s="12">
         <v>4000</v>
@@ -2857,10 +2905,10 @@
         <v>240</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E11" s="12">
         <v>3500</v>
@@ -2874,10 +2922,10 @@
         <v>270</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E12" s="12">
         <v>3000</v>
@@ -2891,10 +2939,10 @@
         <v>300</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E13" s="12">
         <v>2500</v>
@@ -2908,10 +2956,10 @@
         <v>360</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E14" s="12">
         <v>2000</v>
@@ -2932,7 +2980,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2951,13 +2999,13 @@
         <v>82</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2965,16 +3013,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2988,7 +3036,7 @@
         <v>72</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
@@ -3005,7 +3053,7 @@
         <v>72</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -3015,14 +3063,14 @@
       <c r="A5" s="18">
         <v>4003</v>
       </c>
-      <c r="B5" s="12">
-        <v>2000</v>
+      <c r="B5" s="43">
+        <v>1500</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -3032,14 +3080,14 @@
       <c r="A6" s="18">
         <v>4004</v>
       </c>
-      <c r="B6" s="12">
-        <v>2000</v>
+      <c r="B6" s="43">
+        <v>1000</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -3119,7 +3167,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -3132,7 +3180,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -3262,11 +3310,11 @@
         <v>1001</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3294,7 +3342,7 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -3309,7 +3357,7 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -3324,7 +3372,7 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -3339,7 +3387,7 @@
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -3354,7 +3402,7 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -3369,7 +3417,7 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -3432,7 +3480,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3448,33 +3496,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>285</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.45" customHeight="1">
@@ -3482,16 +3530,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>286</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3499,16 +3547,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" t="s">
         <v>287</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E4" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3582,7 +3630,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3621,7 +3669,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3653,24 +3701,24 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3824,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3911,7 +3959,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>97</v>
@@ -4034,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>191</v>
@@ -4063,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>192</v>
@@ -4441,24 +4489,24 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.899999999999999" customHeight="1">
-      <c r="A29" s="18">
+      <c r="A29" s="41">
         <v>6001</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="40">
         <v>1</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="40">
         <v>0</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
-        <v>277</v>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4521,7 +4569,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -4604,7 +4652,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -4624,10 +4672,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -4635,10 +4683,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4669,13 +4717,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -4718,24 +4763,24 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="40">
         <v>51</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1">
-      <c r="A5" s="6">
+      <c r="A5" s="40">
         <v>52</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="40">
         <v>1</v>
       </c>
     </row>
@@ -4762,13 +4807,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" s="5" customFormat="1">
-      <c r="A8" s="6">
+      <c r="A8" s="40">
         <v>55</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="40">
         <v>2000</v>
       </c>
     </row>
@@ -4807,7 +4852,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -4861,13 +4906,13 @@
         <v>1001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>212</v>
+        <v>345</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="E3" s="9">
         <v>1002</v>
@@ -4884,10 +4929,10 @@
         <v>225</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="E4" s="9">
         <v>4</v>
@@ -4923,18 +4968,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -5036,7 +5079,7 @@
         <v>800</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I3" s="37" t="s">
         <v>187</v>
@@ -5066,10 +5109,10 @@
         <v>1000</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J4" s="33"/>
     </row>
@@ -5098,7 +5141,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5126,7 +5169,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
       <c r="J6" s="37" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5146,7 +5189,7 @@
         <v>133</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -5162,7 +5205,7 @@
         <v>5002</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -5171,7 +5214,7 @@
         <v>133</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G8" s="18">
         <v>500</v>
@@ -5198,7 +5241,7 @@
         <v>134</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G9" s="27">
         <v>6</v>
@@ -5225,7 +5268,7 @@
         <v>134</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G10" s="27">
         <v>30</v>
@@ -5252,7 +5295,7 @@
         <v>134</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G11" s="27">
         <v>98</v>
@@ -5279,7 +5322,7 @@
         <v>134</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G12" s="27">
         <v>198</v>
@@ -5306,7 +5349,7 @@
         <v>134</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G13" s="27">
         <v>328</v>
@@ -5333,7 +5376,7 @@
         <v>134</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G14" s="27">
         <v>648</v>
@@ -5351,7 +5394,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D15" s="5">
         <v>60</v>
@@ -5363,7 +5406,7 @@
         <v>179</v>
       </c>
       <c r="G15" s="33">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -5378,7 +5421,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D16" s="5">
         <v>300</v>
@@ -5390,14 +5433,12 @@
         <v>179</v>
       </c>
       <c r="G16" s="33">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="33">
-        <v>600</v>
-      </c>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6">
@@ -5407,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D17" s="5">
         <v>980</v>
@@ -5419,11 +5460,9 @@
         <v>179</v>
       </c>
       <c r="G17" s="33">
-        <v>1</v>
-      </c>
-      <c r="K17" s="33">
-        <v>3000</v>
-      </c>
+        <v>9800</v>
+      </c>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="6">
@@ -5433,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D18" s="5">
         <v>1980</v>
@@ -5445,11 +5484,9 @@
         <v>179</v>
       </c>
       <c r="G18" s="33">
-        <v>1</v>
-      </c>
-      <c r="K18" s="33">
-        <v>9800</v>
-      </c>
+        <v>19800</v>
+      </c>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="6">
@@ -5459,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D19" s="5">
         <v>3280</v>
@@ -5471,11 +5508,9 @@
         <v>179</v>
       </c>
       <c r="G19" s="33">
-        <v>1</v>
-      </c>
-      <c r="K19" s="33">
-        <v>19800</v>
-      </c>
+        <v>32800</v>
+      </c>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6">
@@ -5485,7 +5520,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D20" s="5">
         <v>6480</v>
@@ -5497,17 +5532,13 @@
         <v>179</v>
       </c>
       <c r="G20" s="33">
-        <v>1</v>
-      </c>
-      <c r="K20" s="33">
-        <v>32800</v>
-      </c>
+        <v>64800</v>
+      </c>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6"/>
-      <c r="K21" s="33">
-        <v>64800</v>
-      </c>
+      <c r="K21" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5524,7 +5555,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -5548,7 +5579,7 @@
         <v>223</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>114</v>
@@ -5579,8 +5610,8 @@
         <v>198</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>333</v>
+      <c r="D3" s="42" t="s">
+        <v>348</v>
       </c>
       <c r="E3" s="6">
         <v>30</v>
@@ -5594,10 +5625,10 @@
         <v>198</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E4" s="6">
         <v>30</v>
@@ -5650,13 +5681,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -5698,28 +5726,28 @@
       <c r="A3" s="18">
         <v>5001</v>
       </c>
-      <c r="B3" s="6">
-        <v>20</v>
+      <c r="B3" s="46">
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1">
       <c r="A4" s="18">
         <v>5002</v>
       </c>
-      <c r="B4" s="6">
-        <v>30</v>
+      <c r="B4" s="46">
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5742,7 +5770,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -5785,8 +5813,8 @@
       <c r="B3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>358</v>
+      <c r="C3" s="43" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.899999999999999" customHeight="1">
@@ -5796,8 +5824,8 @@
       <c r="B4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>359</v>
+      <c r="C4" s="43" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5807,8 +5835,8 @@
       <c r="B5" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>360</v>
+      <c r="C5" s="43" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5819,7 +5847,7 @@
         <v>124</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5830,7 +5858,7 @@
         <v>124</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5841,7 +5869,7 @@
         <v>124</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5852,7 +5880,7 @@
         <v>124</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5863,7 +5891,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5874,7 +5902,7 @@
         <v>124</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5885,7 +5913,7 @@
         <v>124</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5896,7 +5924,7 @@
         <v>124</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5907,7 +5935,7 @@
         <v>124</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5918,7 +5946,7 @@
         <v>124</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1">
@@ -5929,7 +5957,7 @@
         <v>124</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1">
@@ -5940,7 +5968,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="5" customFormat="1">
@@ -5951,7 +5979,7 @@
         <v>124</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5962,7 +5990,7 @@
         <v>109</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>280</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5973,7 +6001,7 @@
         <v>109</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5984,7 +6012,7 @@
         <v>123</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.899999999999999" customHeight="1">
@@ -5995,7 +6023,7 @@
         <v>123</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:3">

--- a/assets/xlsx2py/rpgdemo/xlsxs/d_game.xlsx
+++ b/assets/xlsx2py/rpgdemo/xlsxs/d_game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9675" yWindow="600" windowWidth="18075" windowHeight="10695" tabRatio="834" activeTab="7"/>
+    <workbookView xWindow="9675" yWindow="600" windowWidth="18075" windowHeight="10695" tabRatio="834" firstSheet="2" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="@土地信息" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,10 @@
     <sheet name="@美术资源" sheetId="14" r:id="rId13"/>
     <sheet name="@任务" sheetId="17" r:id="rId14"/>
     <sheet name="代对表=" sheetId="2" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId16"/>
+    <sheet name="@砖石排行" sheetId="13" r:id="rId16"/>
+    <sheet name="@宠物排行" sheetId="18" r:id="rId17"/>
+    <sheet name="@游戏币排行" sheetId="19" r:id="rId18"/>
+    <sheet name="@E币排行" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="527">
   <si>
     <t>黄土地</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -747,34 +750,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6金蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>人民币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30金蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>68金蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>198金蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>328金蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>648金蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成熟时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -837,27 +816,11 @@
     <t>Num[!.][funcInt]</t>
   </si>
   <si>
-    <t>id[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>stageArray[][funcTupleInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>res[][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>resArray[][funcTupleStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品商品类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -865,14 +828,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>资源名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Frame_icon_fertilizer_grow</t>
   </si>
   <si>
@@ -909,10 +864,6 @@
   </si>
   <si>
     <t>icon_coins01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_coins02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1183,18 +1134,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Chong_Frame_dm01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Chong_Frame_dm02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Chong_Frame_dm03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Chong_Frame_dm04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1228,10 +1171,6 @@
   </si>
   <si>
     <t>Shop_Frame_qqs01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop_Frame_sm01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1460,75 +1399,698 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>{0}来庄园偷取，偷走了{1}个{2}</t>
+  </si>
+  <si>
+    <t>{0}来庄园偷取，被管家抓住，毫无收获</t>
+  </si>
+  <si>
+    <t>{0}来庄园偷取，被管家抓住，只偷走了{1}个{2}</t>
+  </si>
+  <si>
+    <t>{0}赠送了一块{1}给您，剩余{2}次可使用次数</t>
+  </si>
+  <si>
+    <t>({0}){1}邀请您帮忙摇树,倒计时[{2}]</t>
+  </si>
+  <si>
+    <t>({0}){1}邀请您一起偷{2}{3}的树</t>
+  </si>
+  <si>
+    <t>好友{0}摇树成功，您获得了{1}个{2}</t>
+  </si>
+  <si>
+    <t>您去{0}的庄园，一共偷取了{1}个{2}</t>
+  </si>
+  <si>
+    <t>您去{0}的庄园，不幸被对方管家抓住，只偷取了{1}个{2}</t>
+  </si>
+  <si>
+    <t>您去{0}的庄园，不幸被对方管家抓住，毫无收获</t>
+  </si>
+  <si>
+    <t>摇树成功，您一共获得了{0}个{1}</t>
+  </si>
+  <si>
+    <t>捕获到一只{0}</t>
+  </si>
+  <si>
+    <t>收获一只{0}，获得了{1}{2}</t>
+  </si>
+  <si>
+    <t>摇树失败！摇树玩家不足两个人</t>
+  </si>
+  <si>
+    <t>{0}拒绝帮你摇树！</t>
+  </si>
+  <si>
+    <t>{0}拒绝邀请偷树！</t>
+  </si>
+  <si>
+    <t>花费{0}游戏币扩建了一块{1}</t>
+  </si>
+  <si>
+    <t>花费{0}{1}购买了{2}{3}</t>
+  </si>
+  <si>
+    <t>收获了{0},共获得了{1}</t>
+  </si>
+  <si>
+    <t>抓到了前来偷树的{0}</t>
+  </si>
+  <si>
     <t>4,8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{0}来庄园偷取，偷走了{1}个{2}</t>
-  </si>
-  <si>
-    <t>{0}来庄园偷取，被管家抓住，毫无收获</t>
-  </si>
-  <si>
-    <t>{0}来庄园偷取，被管家抓住，只偷走了{1}个{2}</t>
-  </si>
-  <si>
-    <t>{0}赠送了一块{1}给您，剩余{2}次可使用次数</t>
-  </si>
-  <si>
-    <t>({0}){1}邀请您帮忙摇树,倒计时[{2}]</t>
-  </si>
-  <si>
-    <t>({0}){1}邀请您一起偷{2}{3}的树</t>
-  </si>
-  <si>
-    <t>好友{0}摇树成功，您获得了{1}个{2}</t>
-  </si>
-  <si>
-    <t>您去{0}的庄园，一共偷取了{1}个{2}</t>
-  </si>
-  <si>
-    <t>您去{0}的庄园，不幸被对方管家抓住，只偷取了{1}个{2}</t>
-  </si>
-  <si>
-    <t>您去{0}的庄园，不幸被对方管家抓住，毫无收获</t>
-  </si>
-  <si>
-    <t>摇树成功，您一共获得了{0}个{1}</t>
-  </si>
-  <si>
-    <t>捕获到一只{0}</t>
-  </si>
-  <si>
-    <t>收获一只{0}，获得了{1}{2}</t>
-  </si>
-  <si>
-    <t>摇树失败！摇树玩家不足两个人</t>
-  </si>
-  <si>
-    <t>{0}拒绝帮你摇树！</t>
-  </si>
-  <si>
-    <t>{0}拒绝邀请偷树！</t>
-  </si>
-  <si>
-    <t>花费{0}游戏币扩建了一块{1}</t>
-  </si>
-  <si>
-    <t>花费{0}{1}购买了{2}{3}</t>
-  </si>
-  <si>
-    <t>收获了{0},共获得了{1}</t>
-  </si>
-  <si>
-    <t>抓到了前来偷树的{0}</t>
+    <t>有效期（开始时间戳，结束时间戳）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitTime[][funcTupleInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品排列顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_Frame_sdbg</t>
+  </si>
+  <si>
+    <t>SD_Frame_tybg</t>
+  </si>
+  <si>
+    <t>SD_Frame_xdbg</t>
+  </si>
+  <si>
+    <t>圣诞节主题皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缤纷糖果主题皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰天雪地主题皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认主题皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1545667200, 1546012799</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砖石排行:DiamondRank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物排行:PetRank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏币排行:MoneyRank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardType[.][funcTupleInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardValue[.][funcTupleInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低消费钻石标准</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1001</t>
+  </si>
+  <si>
+    <t>1, 1002</t>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>title[.][funcStr]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>钻石消费排名称号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝王</t>
+  </si>
+  <si>
+    <t>相国</t>
+  </si>
+  <si>
+    <t>一品</t>
+  </si>
+  <si>
+    <t>二品</t>
+  </si>
+  <si>
+    <t>三品</t>
+  </si>
+  <si>
+    <t>四品</t>
+  </si>
+  <si>
+    <t>五品</t>
+  </si>
+  <si>
+    <t>六品</t>
+  </si>
+  <si>
+    <t>七品</t>
+  </si>
+  <si>
+    <t>八品</t>
+  </si>
+  <si>
+    <t>九品</t>
+  </si>
+  <si>
+    <t>抓宠元老</t>
+  </si>
+  <si>
+    <t>抓宠大神</t>
+  </si>
+  <si>
+    <t>抓宠神人</t>
+  </si>
+  <si>
+    <t>抓宠大仙</t>
+  </si>
+  <si>
+    <t>抓宠仙人</t>
+  </si>
+  <si>
+    <t>抓宠大圣</t>
+  </si>
+  <si>
+    <t>抓宠圣人</t>
+  </si>
+  <si>
+    <t>抓宠贤人</t>
+  </si>
+  <si>
+    <t>抓宠大师</t>
+  </si>
+  <si>
+    <t>抓宠弟子</t>
+  </si>
+  <si>
+    <t>抓宠学徒</t>
+  </si>
+  <si>
+    <t>ID[!.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title[.][funcStr]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardType[.][funcTupleInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardValue[.][funcTupleInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石消费排名称号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低消费钻石标准</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级富翁</t>
+  </si>
+  <si>
+    <t>富翁</t>
+  </si>
+  <si>
+    <t>超级土豪</t>
+  </si>
+  <si>
+    <t>土豪</t>
+  </si>
+  <si>
+    <t>超级富人</t>
+  </si>
+  <si>
+    <t>富人</t>
+  </si>
+  <si>
+    <t>富商</t>
+  </si>
+  <si>
+    <t>商人</t>
+  </si>
+  <si>
+    <t>小贩</t>
+  </si>
+  <si>
+    <t>管事</t>
+  </si>
+  <si>
+    <t>伙计</t>
+  </si>
+  <si>
+    <t>财主</t>
+  </si>
+  <si>
+    <t>大地主</t>
+  </si>
+  <si>
+    <t>小地主</t>
+  </si>
+  <si>
+    <t>大富农</t>
+  </si>
+  <si>
+    <t>富农</t>
+  </si>
+  <si>
+    <t>中农</t>
+  </si>
+  <si>
+    <t>上中农</t>
+  </si>
+  <si>
+    <t>下中农</t>
+  </si>
+  <si>
+    <t>贫农</t>
+  </si>
+  <si>
+    <t>雇农</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰链</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可提高抓捕"开元通宝"宝宝的几率</t>
+  </si>
+  <si>
+    <t>E币排行:EglodRank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame_fhl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50, 100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到了每周钻石消费排行奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到了每周抓宠数量排行奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到了每周赚取游戏币排行奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到了每周赚取E币数量排行奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3888, 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000, 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000, 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>900, 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800, 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600, 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500, 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400, 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300, 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜迎金猪主题皮肤</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价</t>
+  </si>
+  <si>
+    <t>情人节主题皮肤</t>
+  </si>
+  <si>
+    <t>1547429361, 1578900000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情人节主题皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜迎金猪主题皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itemid[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res[][funcStr]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品商品类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Frame_sm01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_coins02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chong_Frame_dm01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chong_Frame_dm03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Frame_jinbi</t>
+  </si>
+  <si>
+    <t>Shop_Frame_zs</t>
+  </si>
+  <si>
+    <t>icon_kaiyuan</t>
+  </si>
+  <si>
+    <t>PHB_Frame_e1</t>
+  </si>
+  <si>
+    <t>SD_Frame_jzbg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_Frame_qrjbg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1628,6 +2190,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1649,7 +2219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1681,6 +2251,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1729,7 +2312,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1852,12 +2435,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2243,7 +2842,7 @@
   <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -2375,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="1"/>
@@ -2399,17 +2998,17 @@
         <v>39888</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="24" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K4" s="24"/>
       <c r="L4" s="23">
@@ -2433,17 +3032,17 @@
         <v>148000</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -2464,16 +3063,16 @@
         <v>312000</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -2574,8 +3173,8 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2598,34 +3197,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="41.45" customHeight="1">
@@ -2633,34 +3232,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2674,28 +3273,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2000</v>
+        <v>283</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" s="46">
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J3" s="6">
-        <v>3000</v>
-      </c>
-      <c r="K3" s="44">
+        <v>328</v>
+      </c>
+      <c r="J3" s="45">
         <v>50</v>
+      </c>
+      <c r="K3" s="47">
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2707,6 +3306,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2715,7 +3315,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2731,13 +3331,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>82</v>
@@ -2749,16 +3349,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2772,7 +3372,7 @@
         <v>99</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E3" s="12">
         <v>8000</v>
@@ -2786,10 +3386,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E4" s="12">
         <v>7500</v>
@@ -2803,10 +3403,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E5" s="12">
         <v>7000</v>
@@ -2820,10 +3420,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E6" s="12">
         <v>6500</v>
@@ -2837,10 +3437,10 @@
         <v>120</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E7" s="12">
         <v>6000</v>
@@ -2854,10 +3454,10 @@
         <v>150</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E8" s="12">
         <v>5500</v>
@@ -2871,10 +3471,10 @@
         <v>180</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="E9" s="12">
         <v>4500</v>
@@ -2888,10 +3488,10 @@
         <v>210</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E10" s="12">
         <v>4000</v>
@@ -2905,10 +3505,10 @@
         <v>240</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E11" s="12">
         <v>3500</v>
@@ -2922,10 +3522,10 @@
         <v>270</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="E12" s="12">
         <v>3000</v>
@@ -2939,10 +3539,10 @@
         <v>300</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="E13" s="12">
         <v>2500</v>
@@ -2956,10 +3556,10 @@
         <v>360</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E14" s="12">
         <v>2000</v>
@@ -2980,7 +3580,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2999,13 +3599,13 @@
         <v>82</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3013,30 +3613,30 @@
         <v>16</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="18">
         <v>4001</v>
       </c>
-      <c r="B3" s="12">
-        <v>2000</v>
+      <c r="B3" s="43">
+        <v>9000</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
@@ -3046,14 +3646,14 @@
       <c r="A4" s="18">
         <v>4002</v>
       </c>
-      <c r="B4" s="12">
-        <v>2000</v>
+      <c r="B4" s="43">
+        <v>9000</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -3064,13 +3664,13 @@
         <v>4003</v>
       </c>
       <c r="B5" s="43">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -3081,13 +3681,13 @@
         <v>4004</v>
       </c>
       <c r="B6" s="43">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -3109,53 +3709,59 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="5" width="84.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>201</v>
+        <v>510</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>202</v>
+        <v>511</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>204</v>
+        <v>512</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>209</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3163,144 +3769,188 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6">
+        <v>2001</v>
+      </c>
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="18">
+        <v>5001</v>
+      </c>
+      <c r="C7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="18">
+        <v>5002</v>
+      </c>
+      <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>219</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
@@ -3309,14 +3959,16 @@
       <c r="B15" s="6">
         <v>1001</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="C15" s="6">
+        <v>1001</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1">
@@ -3326,25 +3978,30 @@
       <c r="B16" s="6">
         <v>1002</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>213</v>
+      <c r="C16" s="6">
+        <v>1002</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>518</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
@@ -3352,14 +4009,16 @@
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
@@ -3367,14 +4026,16 @@
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>519</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
@@ -3382,14 +4043,16 @@
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="18">
         <v>16</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
@@ -3397,14 +4060,16 @@
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="18">
         <v>17</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18" t="s">
+        <v>278</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
@@ -3413,60 +4078,182 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7002</v>
+      </c>
+      <c r="C23" s="4">
+        <v>19</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19" t="s">
+        <v>365</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7003</v>
+      </c>
+      <c r="C24" s="4">
+        <v>20</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7004</v>
+      </c>
+      <c r="C25" s="4">
+        <v>21</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19" t="s">
+        <v>367</v>
+      </c>
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6001</v>
+      </c>
+      <c r="C26" s="4">
+        <v>22</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="21" t="s">
+        <v>471</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="18"/>
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19" t="s">
+        <v>520</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6">
+        <v>7005</v>
+      </c>
+      <c r="C31" s="4">
+        <v>23</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6">
+        <v>7006</v>
+      </c>
+      <c r="C32" s="4">
+        <v>24</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="F32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3496,33 +4283,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.45" customHeight="1">
@@ -3530,16 +4317,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3547,16 +4334,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3568,10 +4355,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
@@ -3630,7 +4417,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3669,7 +4456,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3695,31 +4482,54 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>276</v>
-      </c>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3734,133 +4544,1133 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:G10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:7">
-      <c r="B5" s="4">
-        <v>7007</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5">
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" s="51">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" s="51">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" s="51">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="4">
-        <v>7008</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6">
+      <c r="B8" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="D8" s="51">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="D9" s="51">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="51">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" s="51">
+        <v>27</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="D12" s="51">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="4">
-        <v>7009</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7">
-        <v>68</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7">
+      <c r="E12" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="51">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="51">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="51">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="51">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" s="51">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="51">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="51">
+        <v>27</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" s="51">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="4">
-        <v>7010</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8">
-        <v>198</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="4">
-        <v>7011</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9">
-        <v>328</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="4">
-        <v>7012</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10">
-        <v>648</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10">
-        <v>3959</v>
-      </c>
+      <c r="E1" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="51">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="13">
+        <v>9000</v>
+      </c>
+      <c r="D6" s="51">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8000</v>
+      </c>
+      <c r="D7" s="51">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7000</v>
+      </c>
+      <c r="D8" s="51">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="13">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="51">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D10" s="51">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="51">
+        <v>27</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="51">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" s="51">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="D6" s="51">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="51">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="51">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" s="51">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>465</v>
+      </c>
+      <c r="D10" s="51">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="51">
+        <v>27</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="51">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3870,10 +5680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3959,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>97</v>
@@ -4082,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>157</v>
@@ -4111,10 +5921,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K10" t="s">
         <v>158</v>
@@ -4463,7 +6273,7 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I27" s="5"/>
     </row>
@@ -4472,7 +6282,7 @@
         <v>5002</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>46</v>
@@ -4485,7 +6295,7 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.899999999999999" customHeight="1">
@@ -4506,56 +6316,131 @@
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1">
+      <c r="A30" s="18">
+        <v>7001</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="18">
+        <v>7002</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="19"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="19"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="19"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+      <c r="A32" s="18">
+        <v>7003</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="18">
+        <v>7004</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="18">
+        <v>7005</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="18">
+        <v>7006</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="18"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="19"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4591,7 +6476,7 @@
         <v>78</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>119</v>
@@ -4623,7 +6508,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -4637,7 +6522,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -4652,7 +6537,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -4672,10 +6557,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -4683,10 +6568,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4811,7 +6696,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C8" s="40">
         <v>2000</v>
@@ -4846,9 +6731,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4906,19 +6788,19 @@
         <v>1001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="E3" s="9">
         <v>1002</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
@@ -4926,19 +6808,19 @@
         <v>1002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E4" s="9">
         <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4974,25 +6856,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18" style="5" customWidth="1"/>
     <col min="4" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.21875" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -5015,16 +6899,22 @@
         <v>94</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
@@ -5046,17 +6936,23 @@
       <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="36" t="s">
+      <c r="H2" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5078,15 +6974,17 @@
       <c r="G3" s="6">
         <v>800</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -5108,15 +7006,17 @@
       <c r="G4" s="6">
         <v>1000</v>
       </c>
-      <c r="H4" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -5138,13 +7038,15 @@
       <c r="G5" s="6">
         <v>500</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -5166,13 +7068,15 @@
       <c r="G6" s="6">
         <v>800</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -5189,15 +7093,17 @@
         <v>133</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -5205,7 +7111,7 @@
         <v>5002</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -5214,17 +7120,19 @@
         <v>133</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G8" s="18">
         <v>500</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -5241,17 +7149,19 @@
         <v>134</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G9" s="27">
         <v>6</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -5268,17 +7178,19 @@
         <v>134</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G10" s="27">
         <v>30</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -5295,17 +7207,19 @@
         <v>134</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G11" s="27">
         <v>98</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -5322,17 +7236,19 @@
         <v>134</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G12" s="27">
         <v>198</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -5349,17 +7265,19 @@
         <v>134</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G13" s="27">
         <v>328</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -5376,17 +7294,19 @@
         <v>134</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G14" s="27">
         <v>648</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="33"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -5394,7 +7314,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D15" s="5">
         <v>60</v>
@@ -5403,17 +7323,19 @@
         <v>97</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G15" s="33">
         <v>600</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -5421,7 +7343,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D16" s="5">
         <v>300</v>
@@ -5430,17 +7352,19 @@
         <v>97</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="33">
         <v>3000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -5448,7 +7372,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D17" s="5">
         <v>980</v>
@@ -5457,14 +7381,16 @@
         <v>97</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="33">
         <v>9800</v>
       </c>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -5472,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D18" s="5">
         <v>1980</v>
@@ -5481,14 +7407,16 @@
         <v>97</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G18" s="33">
         <v>19800</v>
       </c>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -5496,7 +7424,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D19" s="5">
         <v>3280</v>
@@ -5505,14 +7433,16 @@
         <v>97</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G19" s="33">
         <v>32800</v>
       </c>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -5520,7 +7450,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D20" s="5">
         <v>6480</v>
@@ -5529,16 +7459,204 @@
         <v>97</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G20" s="33">
         <v>64800</v>
       </c>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="6"/>
-      <c r="K21" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7002</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="6">
+        <v>88</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="I21" s="5">
+        <v>3</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="L21">
+        <v>128</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7003</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" s="6">
+        <v>128</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7004</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G23" s="6">
+        <v>128</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6001</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G24" s="6">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7005</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="G25" s="5">
+        <v>98</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="I25" s="5">
+        <v>5</v>
+      </c>
+      <c r="L25" s="5">
+        <v>128</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>7006</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="G26" s="5">
+        <v>98</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="I26" s="5">
+        <v>4</v>
+      </c>
+      <c r="L26" s="5">
+        <v>128</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>505</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5549,13 +7667,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -5576,10 +7691,10 @@
         <v>116</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>114</v>
@@ -5607,11 +7722,11 @@
         <v>1001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="42" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E3" s="6">
         <v>30</v>
@@ -5622,19 +7737,19 @@
         <v>1002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E4" s="6">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5683,8 +7798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -5726,7 +7841,7 @@
       <c r="A3" s="18">
         <v>5001</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5740,7 +7855,7 @@
       <c r="A4" s="18">
         <v>5002</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -5764,13 +7879,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -5778,6 +7890,8 @@
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="50.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1">
@@ -5805,6 +7919,8 @@
       <c r="C2" s="12" t="s">
         <v>106</v>
       </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13">
@@ -5814,7 +7930,7 @@
         <v>124</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.899999999999999" customHeight="1">
@@ -5825,7 +7941,7 @@
         <v>124</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5836,7 +7952,7 @@
         <v>124</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5847,7 +7963,7 @@
         <v>124</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5858,7 +7974,7 @@
         <v>124</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5869,7 +7985,7 @@
         <v>124</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5880,7 +7996,7 @@
         <v>124</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5891,7 +8007,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5902,7 +8018,7 @@
         <v>124</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5913,7 +8029,7 @@
         <v>124</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5924,7 +8040,7 @@
         <v>124</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5935,7 +8051,7 @@
         <v>124</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5946,7 +8062,7 @@
         <v>124</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1">
@@ -5957,10 +8073,10 @@
         <v>124</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1">
       <c r="A17" s="27">
         <v>3015</v>
       </c>
@@ -5968,10 +8084,10 @@
         <v>124</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1">
       <c r="A18" s="27">
         <v>3016</v>
       </c>
@@ -5979,21 +8095,21 @@
         <v>124</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="9">
         <v>4001</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>109</v>
+        <v>480</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="9">
         <v>4002</v>
       </c>
@@ -6001,21 +8117,21 @@
         <v>109</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="9">
         <v>5001</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>123</v>
+        <v>481</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.899999999999999" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="9">
         <v>5002</v>
       </c>
@@ -6023,26 +8139,68 @@
         <v>123</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.899999999999999" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="C26" s="32"/>
-    </row>
-    <row r="27" spans="1:3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9">
+        <v>6001</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.899999999999999" customHeight="1">
+      <c r="A24" s="9">
+        <v>6002</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9">
+        <v>6003</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9">
+        <v>6004</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9">
+        <v>1001</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>472</v>
+      </c>
       <c r="C27" s="32"/>
     </row>
   </sheetData>
